--- a/practice question mcq.xlsx
+++ b/practice question mcq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisco-my.sharepoint.com/personal/rajeevs4_cisco_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{EBE08F6D-7173-4DFF-91EF-0572A72313D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7D38D39-E9BF-47E2-BFE0-A5EA571E8DBD}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{EBE08F6D-7173-4DFF-91EF-0572A72313D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9807A235-8E07-4219-99E4-120AB2001BC0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5DDB302E-3205-49CA-9ADB-7107B0AC6295}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="1462">
   <si>
     <t>Question</t>
   </si>
@@ -1515,6 +1515,2913 @@
   </si>
   <si>
     <t>Manages concurrent transactions in a multi-user environment</t>
+  </si>
+  <si>
+    <t>What is a dynamic session parameter in Informatica?</t>
+  </si>
+  <si>
+    <t>A parameter that can change during session execution based on variable values</t>
+  </si>
+  <si>
+    <t>What does the Shared Cache option do in Lookup transformation?</t>
+  </si>
+  <si>
+    <t>Allows multiple lookups to use the same cache to improve performance</t>
+  </si>
+  <si>
+    <t>What is the significance of the session commit interval?</t>
+  </si>
+  <si>
+    <t>Defines the number of rows processed before committing data to the target</t>
+  </si>
+  <si>
+    <t>What is the difference between passive and active transformation?</t>
+  </si>
+  <si>
+    <t>Active transformation alters row count, while passive does not</t>
+  </si>
+  <si>
+    <t>What does the Union transformation require in Informatica?</t>
+  </si>
+  <si>
+    <t>All source groups must have the same structure</t>
+  </si>
+  <si>
+    <t>What does the target load plan do in a workflow?</t>
+  </si>
+  <si>
+    <t>Specifies the order in which data is loaded into targets</t>
+  </si>
+  <si>
+    <t>What is meant by parameterization in Informatica?</t>
+  </si>
+  <si>
+    <t>Using external values to make mappings more flexible</t>
+  </si>
+  <si>
+    <t>What is a Restartable Task in Informatica?</t>
+  </si>
+  <si>
+    <t>How does Informatica handle NULL values during transformation?</t>
+  </si>
+  <si>
+    <t>NULL values are processed based on transformation logic and function handling</t>
+  </si>
+  <si>
+    <t>What is the purpose of the Transaction Control transformation?</t>
+  </si>
+  <si>
+    <t>What does a mapping audit trail contain?</t>
+  </si>
+  <si>
+    <t>Records the execution history of a mapping, including source and target details</t>
+  </si>
+  <si>
+    <t>What is meant by a parallel partition in Informatica?</t>
+  </si>
+  <si>
+    <t>Dividing data processing into multiple segments for better performance</t>
+  </si>
+  <si>
+    <t>What is a pipeline lookup?</t>
+  </si>
+  <si>
+    <t>Lookup transformation performed within the same mapping pipeline</t>
+  </si>
+  <si>
+    <t>What does "Reject File" mean in Informatica?</t>
+  </si>
+  <si>
+    <t>A file that stores records rejected due to transformation errors</t>
+  </si>
+  <si>
+    <t>What is the purpose of the "Multiple Instance" property in workflows?</t>
+  </si>
+  <si>
+    <t>Allows multiple instances of a workflow to run simultaneously</t>
+  </si>
+  <si>
+    <t>What does a persistent cache in Lookup transformation do?</t>
+  </si>
+  <si>
+    <t>Saves cache for reuse in multiple session runs</t>
+  </si>
+  <si>
+    <t>What is the difference between connected and unconnected stored procedure transformation?</t>
+  </si>
+  <si>
+    <t>Connected is part of the mapping flow, while unconnected is invoked separately</t>
+  </si>
+  <si>
+    <t>What is a surrogate key and why is it used in data warehousing?</t>
+  </si>
+  <si>
+    <t>A unique system-generated identifier used to maintain consistency in data</t>
+  </si>
+  <si>
+    <t>What is the purpose of "Aggregator Cache" in Informatica?</t>
+  </si>
+  <si>
+    <t>Temporarily stores grouped data for aggregation operations</t>
+  </si>
+  <si>
+    <t>What does a mapping level validation check?</t>
+  </si>
+  <si>
+    <t>Ensures all transformations, sources, and targets are correctly configured</t>
+  </si>
+  <si>
+    <t>A constant value used in all sessions</t>
+  </si>
+  <si>
+    <t>A parameter that changes based on environment variables</t>
+  </si>
+  <si>
+    <t>A default value used at runtime</t>
+  </si>
+  <si>
+    <t>Creates a cache for each session</t>
+  </si>
+  <si>
+    <t>Deletes cache after each session</t>
+  </si>
+  <si>
+    <t>Prevents cache usage in multiple lookups</t>
+  </si>
+  <si>
+    <t>Defines the maximum session runtime</t>
+  </si>
+  <si>
+    <t>Specifies the number of source records read per minute</t>
+  </si>
+  <si>
+    <t>Specifies how many transformations occur before commit</t>
+  </si>
+  <si>
+    <t>Passive transformations modify row count</t>
+  </si>
+  <si>
+    <t>Passive transformations are used only in lookups</t>
+  </si>
+  <si>
+    <t>Active transformations are not reusable</t>
+  </si>
+  <si>
+    <t>Different data types across inputs</t>
+  </si>
+  <si>
+    <t>Unique keys in each source</t>
+  </si>
+  <si>
+    <t>Mapping parameters</t>
+  </si>
+  <si>
+    <t>Deletes target tables before loading</t>
+  </si>
+  <si>
+    <t>Validates source data</t>
+  </si>
+  <si>
+    <t>Defines transformation rules</t>
+  </si>
+  <si>
+    <t>Using internal scripts for mappings</t>
+  </si>
+  <si>
+    <t>Hardcoding session parameters</t>
+  </si>
+  <si>
+    <t>Creating static workflows</t>
+  </si>
+  <si>
+    <t>A task that runs in parallel</t>
+  </si>
+  <si>
+    <t>Allows a failed task to be re-run from the last successful checkpoint</t>
+  </si>
+  <si>
+    <t>Runs only once regardless of failure</t>
+  </si>
+  <si>
+    <t>Doesn't allow rollback</t>
+  </si>
+  <si>
+    <t>Converts all NULLs to zeros</t>
+  </si>
+  <si>
+    <t>Replaces NULLs with 'NA'</t>
+  </si>
+  <si>
+    <t>Ignores NULL values completely</t>
+  </si>
+  <si>
+    <t>Defines how database transactions are committed or rolled back</t>
+  </si>
+  <si>
+    <t>Controls session start time</t>
+  </si>
+  <si>
+    <t>Manages workflow variables</t>
+  </si>
+  <si>
+    <t>Assigns roles to users</t>
+  </si>
+  <si>
+    <t>User login information</t>
+  </si>
+  <si>
+    <t>License usage data</t>
+  </si>
+  <si>
+    <t>Transformation statistics only</t>
+  </si>
+  <si>
+    <t>Creating multiple workflows</t>
+  </si>
+  <si>
+    <t>Duplicating data for backup</t>
+  </si>
+  <si>
+    <t>Disabling transformation reuse</t>
+  </si>
+  <si>
+    <t>A reusable static lookup</t>
+  </si>
+  <si>
+    <t>Lookup using external source files</t>
+  </si>
+  <si>
+    <t>Lookup with no cache</t>
+  </si>
+  <si>
+    <t>File used to store source data</t>
+  </si>
+  <si>
+    <t>Audit log file</t>
+  </si>
+  <si>
+    <t>Session log summary</t>
+  </si>
+  <si>
+    <t>Prevents workflow re-execution</t>
+  </si>
+  <si>
+    <t>Allows dynamic mapping</t>
+  </si>
+  <si>
+    <t>Deletes sessions after execution</t>
+  </si>
+  <si>
+    <t>Prevents cache creation</t>
+  </si>
+  <si>
+    <t>Deletes cache after use</t>
+  </si>
+  <si>
+    <t>Uses session parameters for cache</t>
+  </si>
+  <si>
+    <t>Both must be reused</t>
+  </si>
+  <si>
+    <t>Unconnected uses flat files</t>
+  </si>
+  <si>
+    <t>Connected runs asynchronously</t>
+  </si>
+  <si>
+    <t>A key derived from business data</t>
+  </si>
+  <si>
+    <t>An alternative to primary key</t>
+  </si>
+  <si>
+    <t>Used only for staging tables</t>
+  </si>
+  <si>
+    <t>Stores reject records</t>
+  </si>
+  <si>
+    <t>Saves mapping parameters</t>
+  </si>
+  <si>
+    <t>Logs transformation errors</t>
+  </si>
+  <si>
+    <t>Session schedule</t>
+  </si>
+  <si>
+    <t>Cache memory size</t>
+  </si>
+  <si>
+    <t>Workflow naming conventions</t>
+  </si>
+  <si>
+    <t>What is the difference between active and passive transformations?</t>
+  </si>
+  <si>
+    <t>Passive transformations can modify rows</t>
+  </si>
+  <si>
+    <t>Active transformations change data types only</t>
+  </si>
+  <si>
+    <t>Active transformations change the number of rows, while passive transformations do not</t>
+  </si>
+  <si>
+    <t>Passive transformations always use cache</t>
+  </si>
+  <si>
+    <t>What does the Transaction Control transformation do?</t>
+  </si>
+  <si>
+    <t>Defines mapping variables</t>
+  </si>
+  <si>
+    <t>Sends email alerts on failure</t>
+  </si>
+  <si>
+    <t>Defines commit or rollback points within a mapping</t>
+  </si>
+  <si>
+    <t>Tracks rejected rows</t>
+  </si>
+  <si>
+    <t>What does the Integration Service do in Informatica?</t>
+  </si>
+  <si>
+    <t>Monitors database triggers</t>
+  </si>
+  <si>
+    <t>Handles user login requests</t>
+  </si>
+  <si>
+    <t>Manages data movement and transformation execution</t>
+  </si>
+  <si>
+    <t>Schedules workflow start time</t>
+  </si>
+  <si>
+    <t>What is a session recovery strategy?</t>
+  </si>
+  <si>
+    <t>Re-executes the entire workflow on failure</t>
+  </si>
+  <si>
+    <t>Allows sessions to restart from the last successful checkpoint after failure</t>
+  </si>
+  <si>
+    <t>Deletes failed records automatically</t>
+  </si>
+  <si>
+    <t>Prevents rollback in mappings</t>
+  </si>
+  <si>
+    <t>What does the Lookup transformation cache contain?</t>
+  </si>
+  <si>
+    <t>Session logs</t>
+  </si>
+  <si>
+    <t>Source metadata</t>
+  </si>
+  <si>
+    <t>Transformation rules</t>
+  </si>
+  <si>
+    <t>Stores data for faster retrieval during transformation execution</t>
+  </si>
+  <si>
+    <t>What is the function of the Expression transformation?</t>
+  </si>
+  <si>
+    <t>Routes data conditionally</t>
+  </si>
+  <si>
+    <t>Looks up data from flat files</t>
+  </si>
+  <si>
+    <t>Performs calculations and manipulations on data fields</t>
+  </si>
+  <si>
+    <t>Generates sequence numbers</t>
+  </si>
+  <si>
+    <t>What is the difference between connected and unconnected Lookup transformations?</t>
+  </si>
+  <si>
+    <t>Both always require caching</t>
+  </si>
+  <si>
+    <t>Connected Lookup is used for reusable transformations only</t>
+  </si>
+  <si>
+    <t>Connected Lookup is part of the data flow, while unconnected is invoked separately</t>
+  </si>
+  <si>
+    <t>Unconnected Lookup doesn't use cache</t>
+  </si>
+  <si>
+    <t>What is the significance of Dynamic Lookup?</t>
+  </si>
+  <si>
+    <t>Prevents cache usage</t>
+  </si>
+  <si>
+    <t>Uses mapping variables dynamically</t>
+  </si>
+  <si>
+    <t>Updates cache during session execution to accommodate real-time data changes</t>
+  </si>
+  <si>
+    <t>Reduces session runtime manually</t>
+  </si>
+  <si>
+    <t>What does the Sequence Generator transformation do?</t>
+  </si>
+  <si>
+    <t>Sorts records in order</t>
+  </si>
+  <si>
+    <t>Generates unique sequential numbers for processing</t>
+  </si>
+  <si>
+    <t>Filters records by rank</t>
+  </si>
+  <si>
+    <t>Joins records by keys</t>
+  </si>
+  <si>
+    <t>What is Incremental Aggregation in Informatica?</t>
+  </si>
+  <si>
+    <t>Aggregates all data every time</t>
+  </si>
+  <si>
+    <t>Joins incremental records with static tables</t>
+  </si>
+  <si>
+    <t>Filters NULL values before aggregation</t>
+  </si>
+  <si>
+    <t>Processes only changed source data instead of full data for better performance</t>
+  </si>
+  <si>
+    <t>What does the Rank transformation do?</t>
+  </si>
+  <si>
+    <t>Generates primary keys</t>
+  </si>
+  <si>
+    <t>Identifies top or bottom records within grouped data</t>
+  </si>
+  <si>
+    <t>Aggregates data for target</t>
+  </si>
+  <si>
+    <t>Filters NULL records</t>
+  </si>
+  <si>
+    <t>What is the function of the Router transformation?</t>
+  </si>
+  <si>
+    <t>Sorts records alphabetically</t>
+  </si>
+  <si>
+    <t>Routes data into multiple outputs based on conditions</t>
+  </si>
+  <si>
+    <t>Converts data types</t>
+  </si>
+  <si>
+    <t>Performs calculations</t>
+  </si>
+  <si>
+    <t>What does the Joiner transformation do?</t>
+  </si>
+  <si>
+    <t>Splits rows across tables</t>
+  </si>
+  <si>
+    <t>Adds surrogate keys</t>
+  </si>
+  <si>
+    <t>Merges data from two sources based on a matching condition</t>
+  </si>
+  <si>
+    <t>Performs aggregation</t>
+  </si>
+  <si>
+    <t>What is a surrogate key?</t>
+  </si>
+  <si>
+    <t>A business key for analytics</t>
+  </si>
+  <si>
+    <t>A temporary primary key</t>
+  </si>
+  <si>
+    <t>A key from external systems</t>
+  </si>
+  <si>
+    <t>A unique system-generated identifier used in data warehousing</t>
+  </si>
+  <si>
+    <t>What does a mapping parameter do?</t>
+  </si>
+  <si>
+    <t>Stores temporary logs</t>
+  </si>
+  <si>
+    <t>Stores constant values used throughout the mapping execution</t>
+  </si>
+  <si>
+    <t>Generates sequential numbers</t>
+  </si>
+  <si>
+    <t>Executes workflows</t>
+  </si>
+  <si>
+    <t>What is a mapping variable?</t>
+  </si>
+  <si>
+    <t>Used for static values in expressions</t>
+  </si>
+  <si>
+    <t>Stores values that change during workflow execution</t>
+  </si>
+  <si>
+    <t>Used to define transformations</t>
+  </si>
+  <si>
+    <t>Defines static cache values</t>
+  </si>
+  <si>
+    <t>What is the role of the Workflow Monitor in Informatica?</t>
+  </si>
+  <si>
+    <t>Deletes logs after execution</t>
+  </si>
+  <si>
+    <t>Tracks execution status of workflows and sessions</t>
+  </si>
+  <si>
+    <t>Validates mapping syntax</t>
+  </si>
+  <si>
+    <t>Optimizes transformations</t>
+  </si>
+  <si>
+    <t>Forces session rollback</t>
+  </si>
+  <si>
+    <t>Deletes session cache</t>
+  </si>
+  <si>
+    <t>Converts session to batch</t>
+  </si>
+  <si>
+    <t>What is pushdown optimization?</t>
+  </si>
+  <si>
+    <t>Pushes target data to flat files</t>
+  </si>
+  <si>
+    <t>Runs transformations manually</t>
+  </si>
+  <si>
+    <t>Moves transformation logic to the database level to improve performance</t>
+  </si>
+  <si>
+    <t>Converts session logs into SQL</t>
+  </si>
+  <si>
+    <t>What does parallel partitioning do in Informatica?</t>
+  </si>
+  <si>
+    <t>Removes duplicate rows</t>
+  </si>
+  <si>
+    <t>Adds audit columns to data</t>
+  </si>
+  <si>
+    <t>Allows data processing in multiple partitions for better speed</t>
+  </si>
+  <si>
+    <t>Compresses target tables</t>
+  </si>
+  <si>
+    <t>What is a persistent lookup cache?</t>
+  </si>
+  <si>
+    <t>Stores temporary data during one session</t>
+  </si>
+  <si>
+    <t>Stores rejected rows</t>
+  </si>
+  <si>
+    <t>Stores lookup results across multiple session runs</t>
+  </si>
+  <si>
+    <t>Deletes old cache after each run</t>
+  </si>
+  <si>
+    <t>Loads files into the repository</t>
+  </si>
+  <si>
+    <t>Loads one file at a time</t>
+  </si>
+  <si>
+    <t>Loads multiple source files using a single session configuration</t>
+  </si>
+  <si>
+    <t>Loads data from cache only</t>
+  </si>
+  <si>
+    <t>Tracks session errors</t>
+  </si>
+  <si>
+    <t>Stores details of mappings, workflows, and transformations</t>
+  </si>
+  <si>
+    <t>Generates unique IDs for data</t>
+  </si>
+  <si>
+    <t>Monitors workflow schedule</t>
+  </si>
+  <si>
+    <t>What does the Load Balancer do?</t>
+  </si>
+  <si>
+    <t>Monitors source systems</t>
+  </si>
+  <si>
+    <t>Compresses session logs</t>
+  </si>
+  <si>
+    <t>Distributes workload across multiple processing nodes</t>
+  </si>
+  <si>
+    <t>Converts mappings into workflows</t>
+  </si>
+  <si>
+    <t>A file storage mechanism</t>
+  </si>
+  <si>
+    <t>A session schedule tool</t>
+  </si>
+  <si>
+    <t>The flow of data through different transformations</t>
+  </si>
+  <si>
+    <t>Data filter used in workflows</t>
+  </si>
+  <si>
+    <t>Joins tables</t>
+  </si>
+  <si>
+    <t>Sorts data based on specified fields</t>
+  </si>
+  <si>
+    <t>Aggregates records</t>
+  </si>
+  <si>
+    <t>What does error handling in Informatica include?</t>
+  </si>
+  <si>
+    <t>Auto-fixing of all data errors</t>
+  </si>
+  <si>
+    <t>Manual deletion of failed records</t>
+  </si>
+  <si>
+    <t>Managing rejected records, logging errors, and recovering failed sessions</t>
+  </si>
+  <si>
+    <t>Running rollback scripts manually</t>
+  </si>
+  <si>
+    <t>What does the Debugger tool do?</t>
+  </si>
+  <si>
+    <t>Monitors CPU usage</t>
+  </si>
+  <si>
+    <t>Displays job history</t>
+  </si>
+  <si>
+    <t>Archives old sessions</t>
+  </si>
+  <si>
+    <t>What is the function of a pre-session SQL command?</t>
+  </si>
+  <si>
+    <t>Executes before workflow starts</t>
+  </si>
+  <si>
+    <t>Backs up target table</t>
+  </si>
+  <si>
+    <t>Deletes temp files</t>
+  </si>
+  <si>
+    <t>Deletes session logs</t>
+  </si>
+  <si>
+    <t>Archives rejected rows</t>
+  </si>
+  <si>
+    <t>Executes a command after session completion</t>
+  </si>
+  <si>
+    <t>Backs up workflow metadata</t>
+  </si>
+  <si>
+    <t>Stops workflow execution</t>
+  </si>
+  <si>
+    <t>Repeats previous tasks</t>
+  </si>
+  <si>
+    <t>Logs audit trail</t>
+  </si>
+  <si>
+    <t>What does the XML transformation do?</t>
+  </si>
+  <si>
+    <t>Encrypts XML files</t>
+  </si>
+  <si>
+    <t>Creates XML structure only</t>
+  </si>
+  <si>
+    <t>Converts XML into JSON</t>
+  </si>
+  <si>
+    <t>What is the meaning of delta load in ETL processes?</t>
+  </si>
+  <si>
+    <t>Loading full data always</t>
+  </si>
+  <si>
+    <t>Reloading previous batch</t>
+  </si>
+  <si>
+    <t>Ignoring duplicate records</t>
+  </si>
+  <si>
+    <t>What is rollback in Informatica?</t>
+  </si>
+  <si>
+    <t>Converts data into flat files</t>
+  </si>
+  <si>
+    <t>Deletes mapping variables</t>
+  </si>
+  <si>
+    <t>Reverts changes to a previous state if session execution fails</t>
+  </si>
+  <si>
+    <t>Stops all future workflows</t>
+  </si>
+  <si>
+    <t>What is parallel processing?</t>
+  </si>
+  <si>
+    <t>Running one task at a time</t>
+  </si>
+  <si>
+    <t>Archiving session logs automatically</t>
+  </si>
+  <si>
+    <t>Runs tasks simultaneously for better performance</t>
+  </si>
+  <si>
+    <t>Runs only error handling routines</t>
+  </si>
+  <si>
+    <t>Tracks session execution logs</t>
+  </si>
+  <si>
+    <t>Optimizes workflows at runtime</t>
+  </si>
+  <si>
+    <t>Maintains multiple versions of repository objects</t>
+  </si>
+  <si>
+    <t>Stores data lineage info only</t>
+  </si>
+  <si>
+    <t>A temporary value for NULLs</t>
+  </si>
+  <si>
+    <t>A system-generated unique identifier</t>
+  </si>
+  <si>
+    <t>A primary key from source table</t>
+  </si>
+  <si>
+    <t>A lookup key for target</t>
+  </si>
+  <si>
+    <t>What is the function of an Aggregator Cache?</t>
+  </si>
+  <si>
+    <t>Caches source data for performance</t>
+  </si>
+  <si>
+    <t>Stores mapping variables</t>
+  </si>
+  <si>
+    <t>Holds transformation scripts</t>
+  </si>
+  <si>
+    <t>A method for error logging</t>
+  </si>
+  <si>
+    <t>Data that defines the structure of other data</t>
+  </si>
+  <si>
+    <t>A file containing audit info</t>
+  </si>
+  <si>
+    <t>A record tracking system</t>
+  </si>
+  <si>
+    <t>What does a reusable session mean?</t>
+  </si>
+  <si>
+    <t>A session with permanent cache</t>
+  </si>
+  <si>
+    <t>A session that can be reused within one workflow only</t>
+  </si>
+  <si>
+    <t>A backup session copy</t>
+  </si>
+  <si>
+    <t>What does incremental backup store?</t>
+  </si>
+  <si>
+    <t>Complete system data</t>
+  </si>
+  <si>
+    <t>All log files</t>
+  </si>
+  <si>
+    <t>Saves only the changes since the last backup</t>
+  </si>
+  <si>
+    <t>Temporary session data</t>
+  </si>
+  <si>
+    <t>What is the significance of source-based commits?</t>
+  </si>
+  <si>
+    <t>Commits after workflow completion</t>
+  </si>
+  <si>
+    <t>Commits only if target is available</t>
+  </si>
+  <si>
+    <t>Commits data after processing a predefined number of rows</t>
+  </si>
+  <si>
+    <t>Commits per transformation</t>
+  </si>
+  <si>
+    <t>What does the rollback segment maintain?</t>
+  </si>
+  <si>
+    <t>Data lineage</t>
+  </si>
+  <si>
+    <t>Stored procedures</t>
+  </si>
+  <si>
+    <t>Stores logs of failed transactions for recovery</t>
+  </si>
+  <si>
+    <t>Cache files</t>
+  </si>
+  <si>
+    <t>What does Informatica Data Quality (IDQ) do?</t>
+  </si>
+  <si>
+    <t>Compresses flat files</t>
+  </si>
+  <si>
+    <t>Improves data accuracy by identifying and resolving inconsistencies</t>
+  </si>
+  <si>
+    <t>Loads XML data into staging</t>
+  </si>
+  <si>
+    <t>Schedules workflows</t>
+  </si>
+  <si>
+    <t>What does the command task in Informatica do?</t>
+  </si>
+  <si>
+    <t>Sends email notifications</t>
+  </si>
+  <si>
+    <t>Executes operating system commands within workflows</t>
+  </si>
+  <si>
+    <t>Triggers stored procedures</t>
+  </si>
+  <si>
+    <t>Terminates failed sessions</t>
+  </si>
+  <si>
+    <t>Full loads into staging, incremental loads into target</t>
+  </si>
+  <si>
+    <t>Full is faster than incremental</t>
+  </si>
+  <si>
+    <t>Full extraction retrieves all data, incremental fetches only updated records</t>
+  </si>
+  <si>
+    <t>Incremental loads historical data</t>
+  </si>
+  <si>
+    <t>What does the Connection Object define?</t>
+  </si>
+  <si>
+    <t>Workflow dependencies</t>
+  </si>
+  <si>
+    <t>Specifies database or file connection details</t>
+  </si>
+  <si>
+    <t>Cache size for transformations</t>
+  </si>
+  <si>
+    <t>Session parameters</t>
+  </si>
+  <si>
+    <t>What is the purpose of an Event-Wait task?</t>
+  </si>
+  <si>
+    <t>Validates session parameters</t>
+  </si>
+  <si>
+    <t>Pauses workflow execution until an external event occurs</t>
+  </si>
+  <si>
+    <t>Logs transformation output</t>
+  </si>
+  <si>
+    <t>What does data profiling help with?</t>
+  </si>
+  <si>
+    <t>Encrypting sensitive data</t>
+  </si>
+  <si>
+    <t>Analyzing data quality and structure before processing</t>
+  </si>
+  <si>
+    <t>Monitoring session time</t>
+  </si>
+  <si>
+    <t>Creating connection objects</t>
+  </si>
+  <si>
+    <t>A local ETL tool</t>
+  </si>
+  <si>
+    <t>A data migration engine</t>
+  </si>
+  <si>
+    <t>A cloud-based data integration platform</t>
+  </si>
+  <si>
+    <t>A security manager</t>
+  </si>
+  <si>
+    <t>What does error logging capture in Informatica?</t>
+  </si>
+  <si>
+    <t>User login history</t>
+  </si>
+  <si>
+    <t>Target load order</t>
+  </si>
+  <si>
+    <t>Session execution failures and transformation errors</t>
+  </si>
+  <si>
+    <t>Source structure metadata</t>
+  </si>
+  <si>
+    <t>Verbose Data</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Terse</t>
+  </si>
+  <si>
+    <t>Normal tracing</t>
+  </si>
+  <si>
+    <t>What is Informatica’s Metadata Manager?</t>
+  </si>
+  <si>
+    <t>A performance tuning tool</t>
+  </si>
+  <si>
+    <t>A tool for managing and analyzing metadata</t>
+  </si>
+  <si>
+    <t>A task scheduling engine</t>
+  </si>
+  <si>
+    <t>A backup utility</t>
+  </si>
+  <si>
+    <t>What is data lineage in Informatica?</t>
+  </si>
+  <si>
+    <t>Defines row-level policies</t>
+  </si>
+  <si>
+    <t>Shows target structure</t>
+  </si>
+  <si>
+    <t>Tracks the origin and transformation of data throughout its lifecycle</t>
+  </si>
+  <si>
+    <t>Cleans duplicate records</t>
+  </si>
+  <si>
+    <t>What does data masking in Informatica do?</t>
+  </si>
+  <si>
+    <t>Encrypts all logs</t>
+  </si>
+  <si>
+    <t>Loads masked data to staging</t>
+  </si>
+  <si>
+    <t>Generates surrogate keys</t>
+  </si>
+  <si>
+    <t>What is a reusable transformation?</t>
+  </si>
+  <si>
+    <t>Transformation that runs only once</t>
+  </si>
+  <si>
+    <t>Transformation used in one session only</t>
+  </si>
+  <si>
+    <t>A transformation used across multiple mappings</t>
+  </si>
+  <si>
+    <t>Temporary expression logic</t>
+  </si>
+  <si>
+    <t>What does the Staging Area do in ETL processes?</t>
+  </si>
+  <si>
+    <t>Stores metadata</t>
+  </si>
+  <si>
+    <t>Validates workflows</t>
+  </si>
+  <si>
+    <t>Temporarily stores extracted data before transformation</t>
+  </si>
+  <si>
+    <t>Loads rejected rows</t>
+  </si>
+  <si>
+    <t>Encrypts rows</t>
+  </si>
+  <si>
+    <t>Deletes duplicate rows</t>
+  </si>
+  <si>
+    <t>Tracks row status</t>
+  </si>
+  <si>
+    <t>What is the significance of repository backup?</t>
+  </si>
+  <si>
+    <t>Copies source files</t>
+  </si>
+  <si>
+    <t>Archives session logs</t>
+  </si>
+  <si>
+    <t>Saves metadata for disaster recovery</t>
+  </si>
+  <si>
+    <t>Speeds up transformation</t>
+  </si>
+  <si>
+    <t>What is the difference between read and write locks?</t>
+  </si>
+  <si>
+    <t>Both allow object modification</t>
+  </si>
+  <si>
+    <t>Read lock allows editing, write lock restricts viewing</t>
+  </si>
+  <si>
+    <t>Read lock allows viewing, write lock restricts modifications</t>
+  </si>
+  <si>
+    <t>No difference</t>
+  </si>
+  <si>
+    <t>What is Informatica’s purpose in data integration?</t>
+  </si>
+  <si>
+    <t>Manages cloud billing</t>
+  </si>
+  <si>
+    <t>Sends emails from workflows</t>
+  </si>
+  <si>
+    <t>Enables data extraction, transformation, and loading (ETL)</t>
+  </si>
+  <si>
+    <t>Validates schemas</t>
+  </si>
+  <si>
+    <t>What does session dependency mean?</t>
+  </si>
+  <si>
+    <t>Runs sessions in random order</t>
+  </si>
+  <si>
+    <t>Requires a source to be active</t>
+  </si>
+  <si>
+    <t>Requires one session to complete before another starts</t>
+  </si>
+  <si>
+    <t>Caches previous session data</t>
+  </si>
+  <si>
+    <t>What is Informatica PowerExchange?</t>
+  </si>
+  <si>
+    <t>A reporting engine</t>
+  </si>
+  <si>
+    <t>A tool for integrating real-time data sources</t>
+  </si>
+  <si>
+    <t>An audit trail feature</t>
+  </si>
+  <si>
+    <t>A cloud backup tool</t>
+  </si>
+  <si>
+    <t>What does Informatica Data Replication do?</t>
+  </si>
+  <si>
+    <t>Deletes duplicate records</t>
+  </si>
+  <si>
+    <t>Backs up metadata</t>
+  </si>
+  <si>
+    <t>Transfers data across different databases for synchronization</t>
+  </si>
+  <si>
+    <t>Performs data masking</t>
+  </si>
+  <si>
+    <t>What is the use of Slowly Changing Dimensions (SCD)?</t>
+  </si>
+  <si>
+    <t>Updates source data continuously</t>
+  </si>
+  <si>
+    <t>Maintains historical records in dimensional tables</t>
+  </si>
+  <si>
+    <t>Transforms null values</t>
+  </si>
+  <si>
+    <t>Loads real-time events</t>
+  </si>
+  <si>
+    <t>What does Informatica Mass Ingestion do?</t>
+  </si>
+  <si>
+    <t>Optimizes SQL queries</t>
+  </si>
+  <si>
+    <t>Loads large volumes of data efficiently</t>
+  </si>
+  <si>
+    <t>Caches XML schemas</t>
+  </si>
+  <si>
+    <t>Updates mappings in bulk</t>
+  </si>
+  <si>
+    <t>What is the function of Informatica RulePoint?</t>
+  </si>
+  <si>
+    <t>Executes ETL workflows</t>
+  </si>
+  <si>
+    <t>Monitors events for rule-based automation</t>
+  </si>
+  <si>
+    <t>Loads unstructured data</t>
+  </si>
+  <si>
+    <t>Compresses transformation logs</t>
+  </si>
+  <si>
+    <t>What does Informatica’s ELT processing do?</t>
+  </si>
+  <si>
+    <t>Encrypts loaded data</t>
+  </si>
+  <si>
+    <t>Extracts, loads, and then transforms data</t>
+  </si>
+  <si>
+    <t>Extracts and transforms before loading</t>
+  </si>
+  <si>
+    <t>Deletes target rows</t>
+  </si>
+  <si>
+    <t>What does Informatica’s Data Catalog do?</t>
+  </si>
+  <si>
+    <t>Creates test data</t>
+  </si>
+  <si>
+    <t>Manages and organizes metadata</t>
+  </si>
+  <si>
+    <t>Stores session cache</t>
+  </si>
+  <si>
+    <t>Encrypts workflows</t>
+  </si>
+  <si>
+    <t>What is the difference between Snowflake Schema and Star Schema?</t>
+  </si>
+  <si>
+    <t>Star schema uses JSON</t>
+  </si>
+  <si>
+    <t>Snowflake schema flattens data</t>
+  </si>
+  <si>
+    <t>Snowflake schema normalizes dimension tables, while star schema keeps them denormalized</t>
+  </si>
+  <si>
+    <t>Both are the same</t>
+  </si>
+  <si>
+    <t>What does Informatica’s Workflow Scheduler do?</t>
+  </si>
+  <si>
+    <t>Tracks performance logs</t>
+  </si>
+  <si>
+    <t>Deletes failed sessions</t>
+  </si>
+  <si>
+    <t>Backs up session data</t>
+  </si>
+  <si>
+    <t>What does Informatica’s Cloud Integration Hub do?</t>
+  </si>
+  <si>
+    <t>Runs transformations offline</t>
+  </si>
+  <si>
+    <t>Centralizes data integration across cloud applications</t>
+  </si>
+  <si>
+    <t>Deletes old jobs automatically</t>
+  </si>
+  <si>
+    <t>Sends logs to third-party tools</t>
+  </si>
+  <si>
+    <t>What does Informatica’s Data Governance feature do?</t>
+  </si>
+  <si>
+    <t>Reduces session runtime</t>
+  </si>
+  <si>
+    <t>Ensures data quality, security, and compliance</t>
+  </si>
+  <si>
+    <t>Builds user roles</t>
+  </si>
+  <si>
+    <t>Encrypts all data in workflows</t>
+  </si>
+  <si>
+    <t>What is Informatica’s Real-Time Integration Service?</t>
+  </si>
+  <si>
+    <t>Processes archive data</t>
+  </si>
+  <si>
+    <t>Provides instant data movement capabilities</t>
+  </si>
+  <si>
+    <t>Generates mapping templates</t>
+  </si>
+  <si>
+    <t>Caches ETL logs</t>
+  </si>
+  <si>
+    <t>What does Informatica’s Metadata Repository store?</t>
+  </si>
+  <si>
+    <t>License information</t>
+  </si>
+  <si>
+    <t>Logs and alerts</t>
+  </si>
+  <si>
+    <t>Stores information about mappings, transformations, and workflows</t>
+  </si>
+  <si>
+    <t>Real-time messages</t>
+  </si>
+  <si>
+    <t>What is Informatica’s Data Virtualization feature?</t>
+  </si>
+  <si>
+    <t>Duplicates data for testing</t>
+  </si>
+  <si>
+    <t>Compresses incoming data</t>
+  </si>
+  <si>
+    <t>Creates real-time views without physical data movement</t>
+  </si>
+  <si>
+    <t>Encrypts table-level metadata</t>
+  </si>
+  <si>
+    <t>What does Informatica’s Secure Agent do?</t>
+  </si>
+  <si>
+    <t>Encrypts mappings</t>
+  </si>
+  <si>
+    <t>Creates backups</t>
+  </si>
+  <si>
+    <t>Facilitates secure data movement between on-premise and cloud environments</t>
+  </si>
+  <si>
+    <t>Manages user access roles</t>
+  </si>
+  <si>
+    <t>What is Informatica’s Data Streaming feature used for?</t>
+  </si>
+  <si>
+    <t>Backs up cloud logs</t>
+  </si>
+  <si>
+    <t>Generates key-value pairs</t>
+  </si>
+  <si>
+    <t>Processes real-time event-driven data</t>
+  </si>
+  <si>
+    <t>Deletes old cache</t>
+  </si>
+  <si>
+    <t>What does Informatica’s Hybrid Integration do?</t>
+  </si>
+  <si>
+    <t>Converts data formats</t>
+  </si>
+  <si>
+    <t>Connects cloud and on-premise systems seamlessly</t>
+  </si>
+  <si>
+    <t>Deletes session logs automatically</t>
+  </si>
+  <si>
+    <t>Sends alerts only</t>
+  </si>
+  <si>
+    <t>What does Informatica’s Intelligent Data Lake do?</t>
+  </si>
+  <si>
+    <t>Encrypts historical data</t>
+  </si>
+  <si>
+    <t>Converts schemas automatically</t>
+  </si>
+  <si>
+    <t>Provides self-service access to enterprise-wide data</t>
+  </si>
+  <si>
+    <t>Stores target backup copies</t>
+  </si>
+  <si>
+    <t>What is the difference between passive cache and dynamic cache in lookup transformations?</t>
+  </si>
+  <si>
+    <t>Both update during session</t>
+  </si>
+  <si>
+    <t>Passive cache is for reusable lookups only</t>
+  </si>
+  <si>
+    <t>Passive cache remains unchanged, dynamic cache updates during session</t>
+  </si>
+  <si>
+    <t>Passive cache is slower than dynamic cache</t>
+  </si>
+  <si>
+    <t>How does Informatica handle late-arriving dimensions in ETL processes?</t>
+  </si>
+  <si>
+    <t>Rejects late records</t>
+  </si>
+  <si>
+    <t>Updates mapping variables</t>
+  </si>
+  <si>
+    <t>Uses surrogate keys and updates slowly changing dimensions</t>
+  </si>
+  <si>
+    <t>Loads into separate table</t>
+  </si>
+  <si>
+    <t>What is the role of the PowerCenter Domain in Informatica?</t>
+  </si>
+  <si>
+    <t>Stores ETL logs</t>
+  </si>
+  <si>
+    <t>Provides reporting features</t>
+  </si>
+  <si>
+    <t>Provides admin control over nodes, services, and security</t>
+  </si>
+  <si>
+    <t>Manages source metadata</t>
+  </si>
+  <si>
+    <t>How does Informatica handle recursive data relationships?</t>
+  </si>
+  <si>
+    <t>Ignores recursive rows</t>
+  </si>
+  <si>
+    <t>Uses hierarchical relationships and self-joins in mappings</t>
+  </si>
+  <si>
+    <t>Loads only root-level data</t>
+  </si>
+  <si>
+    <t>Filters out duplicates</t>
+  </si>
+  <si>
+    <t>What are the challenges in implementing pushdown optimization?</t>
+  </si>
+  <si>
+    <t>Slower performance</t>
+  </si>
+  <si>
+    <t>High CPU usage</t>
+  </si>
+  <si>
+    <t>Compatibility issues with database functions and query bottlenecks</t>
+  </si>
+  <si>
+    <t>Backup delays</t>
+  </si>
+  <si>
+    <t>How does Informatica ensure real-time data integration?</t>
+  </si>
+  <si>
+    <t>Loads data in batch</t>
+  </si>
+  <si>
+    <t>Uses flat file loaders</t>
+  </si>
+  <si>
+    <t>Uses PowerExchange connectors and streaming integration</t>
+  </si>
+  <si>
+    <t>Updates mapping cache</t>
+  </si>
+  <si>
+    <t>What is the difference between session logs and workflow logs?</t>
+  </si>
+  <si>
+    <t>Workflow logs are not stored</t>
+  </si>
+  <si>
+    <t>Workflow logs are temporary</t>
+  </si>
+  <si>
+    <t>Session logs show task-level detail, workflow logs show overall job status</t>
+  </si>
+  <si>
+    <t>Workflow logs have more errors</t>
+  </si>
+  <si>
+    <t>How does Informatica maintain high availability in multi-node environments?</t>
+  </si>
+  <si>
+    <t>Uses cache replication only</t>
+  </si>
+  <si>
+    <t>Uses workflow checkpoints</t>
+  </si>
+  <si>
+    <t>Through load balancing, failover mechanisms, and redundancy</t>
+  </si>
+  <si>
+    <t>Uses flat file partitioning</t>
+  </si>
+  <si>
+    <t>What is the importance of data lineage tracking in ETL processes?</t>
+  </si>
+  <si>
+    <t>Avoids duplicate records</t>
+  </si>
+  <si>
+    <t>Speeds up session logs</t>
+  </si>
+  <si>
+    <t>Helps maintain audit trails and transparency in data transformations</t>
+  </si>
+  <si>
+    <t>Adds indexes automatically</t>
+  </si>
+  <si>
+    <t>How can Informatica optimize large-scale data transformations?</t>
+  </si>
+  <si>
+    <t>Using variable groups</t>
+  </si>
+  <si>
+    <t>By running workflows twice</t>
+  </si>
+  <si>
+    <t>Using partitioning, pushdown optimization, and parallel processing</t>
+  </si>
+  <si>
+    <t>Caching workflows</t>
+  </si>
+  <si>
+    <t>What is the impact of using Sorted Input in Aggregator transformation?</t>
+  </si>
+  <si>
+    <t>Reduces performance</t>
+  </si>
+  <si>
+    <t>Increases memory usage</t>
+  </si>
+  <si>
+    <t>Reduces cache size and improves performance</t>
+  </si>
+  <si>
+    <t>Sorts only target data</t>
+  </si>
+  <si>
+    <t>How does Informatica enable metadata versioning?</t>
+  </si>
+  <si>
+    <t>By exporting workflows</t>
+  </si>
+  <si>
+    <t>Using PowerCenter logs</t>
+  </si>
+  <si>
+    <t>Through repository versioning and object history</t>
+  </si>
+  <si>
+    <t>Creating mapping snapshots</t>
+  </si>
+  <si>
+    <t>What are the key differences between static and dynamic cache in Informatica?</t>
+  </si>
+  <si>
+    <t>Static cache updates with triggers</t>
+  </si>
+  <si>
+    <t>Dynamic cache is used for sorting</t>
+  </si>
+  <si>
+    <t>Static does not update, dynamic refreshes with new records</t>
+  </si>
+  <si>
+    <t>Both are same in performance</t>
+  </si>
+  <si>
+    <t>How does Informatica manage database deadlocks during high-volume ETL jobs?</t>
+  </si>
+  <si>
+    <t>Ignores failed rows</t>
+  </si>
+  <si>
+    <t>Skips rollback</t>
+  </si>
+  <si>
+    <t>Optimizes commit intervals and partitions workload</t>
+  </si>
+  <si>
+    <t>Restarts workflows manually</t>
+  </si>
+  <si>
+    <t>What are the benefits of implementing Slowly Changing Dimension Type 3?</t>
+  </si>
+  <si>
+    <t>Overwrites all records</t>
+  </si>
+  <si>
+    <t>Keeps only latest value</t>
+  </si>
+  <si>
+    <t>Retains history while allowing current changes in same record</t>
+  </si>
+  <si>
+    <t>Deletes old history</t>
+  </si>
+  <si>
+    <t>How does Informatica perform incremental load for CDC (Change Data Capture)?</t>
+  </si>
+  <si>
+    <t>Uses hardcoded values</t>
+  </si>
+  <si>
+    <t>Uses flat file lookup</t>
+  </si>
+  <si>
+    <t>Extracts modified records using timestamps/logs</t>
+  </si>
+  <si>
+    <t>Overwrites staging data</t>
+  </si>
+  <si>
+    <t>What does Informatica’s High Availability feature offer?</t>
+  </si>
+  <si>
+    <t>Caches session data</t>
+  </si>
+  <si>
+    <t>Encrypts staging area</t>
+  </si>
+  <si>
+    <t>Ensures failover and redundancy across nodes</t>
+  </si>
+  <si>
+    <t>Compresses source logs</t>
+  </si>
+  <si>
+    <t>How can parameterized mappings improve ETL efficiency?</t>
+  </si>
+  <si>
+    <t>Uses session cache</t>
+  </si>
+  <si>
+    <t>Allows dynamic updates without changing mappings</t>
+  </si>
+  <si>
+    <t>Tracks audit values</t>
+  </si>
+  <si>
+    <t>What are the constraints in implementing Informatica's workflow recovery process?</t>
+  </si>
+  <si>
+    <t>Requires separate license</t>
+  </si>
+  <si>
+    <t>Only supports XML</t>
+  </si>
+  <si>
+    <t>Session dependencies, rollback handling, and cache invalidation</t>
+  </si>
+  <si>
+    <t>Does not support incremental load</t>
+  </si>
+  <si>
+    <t>How does Informatica handle multi-threaded parallel execution?</t>
+  </si>
+  <si>
+    <t>Disables sorted input</t>
+  </si>
+  <si>
+    <t>Uses dynamic partitioning and multithreading</t>
+  </si>
+  <si>
+    <t>Runs each transformation one at a time</t>
+  </si>
+  <si>
+    <t>Loads files in random order</t>
+  </si>
+  <si>
+    <t>What are the advantages of using Informatica’s ELT approach over traditional ETL?</t>
+  </si>
+  <si>
+    <t>Adds latency</t>
+  </si>
+  <si>
+    <t>Increases data size</t>
+  </si>
+  <si>
+    <t>ELT reduces data movement, leverages database processing, and enhances performance</t>
+  </si>
+  <si>
+    <t>Only works with flat files</t>
+  </si>
+  <si>
+    <t>How does Informatica optimize performance using pipeline partitioning?</t>
+  </si>
+  <si>
+    <t>Reduces cache</t>
+  </si>
+  <si>
+    <t>Increases logs</t>
+  </si>
+  <si>
+    <t>Divides data into partitions for parallel execution</t>
+  </si>
+  <si>
+    <t>Disables transformation errors</t>
+  </si>
+  <si>
+    <t>What is the significance of advanced pushdown optimization in Informatica?</t>
+  </si>
+  <si>
+    <t>Loads slowly</t>
+  </si>
+  <si>
+    <t>Pushes logic to database to reduce movement</t>
+  </si>
+  <si>
+    <t>Increases cache size</t>
+  </si>
+  <si>
+    <t>Ignores transformation rules</t>
+  </si>
+  <si>
+    <t>How does Informatica handle real-time data synchronization?</t>
+  </si>
+  <si>
+    <t>Uses email alerts</t>
+  </si>
+  <si>
+    <t>Uses flat file imports</t>
+  </si>
+  <si>
+    <t>Uses CDC and event-driven processing</t>
+  </si>
+  <si>
+    <t>Runs once daily</t>
+  </si>
+  <si>
+    <t>What are the different types of caches used in Informatica transformations?</t>
+  </si>
+  <si>
+    <t>Primary and secondary</t>
+  </si>
+  <si>
+    <t>Input and output</t>
+  </si>
+  <si>
+    <t>Static, dynamic, persistent, and shared cache</t>
+  </si>
+  <si>
+    <t>XML and JSON</t>
+  </si>
+  <si>
+    <t>What is the impact of memory usage on Lookup transformation performance?</t>
+  </si>
+  <si>
+    <t>No impact</t>
+  </si>
+  <si>
+    <t>Decreases row count</t>
+  </si>
+  <si>
+    <t>Poor memory leads to slower performance</t>
+  </si>
+  <si>
+    <t>Deletes records</t>
+  </si>
+  <si>
+    <t>How does Informatica’s PowerExchange enable real-time integration?</t>
+  </si>
+  <si>
+    <t>Runs on a timer</t>
+  </si>
+  <si>
+    <t>Uses source filters</t>
+  </si>
+  <si>
+    <t>Captures changes from logs in real time</t>
+  </si>
+  <si>
+    <t>Requires file-based source</t>
+  </si>
+  <si>
+    <t>What is the purpose of session partitioning in Informatica?</t>
+  </si>
+  <si>
+    <t>Caches data faster</t>
+  </si>
+  <si>
+    <t>Splits workload for parallel execution and better performance</t>
+  </si>
+  <si>
+    <t>Generates logs automatically</t>
+  </si>
+  <si>
+    <t>Filters rows</t>
+  </si>
+  <si>
+    <t>What are the challenges in implementing Change Data Capture (CDC) in Informatica?</t>
+  </si>
+  <si>
+    <t>Managing workflow order</t>
+  </si>
+  <si>
+    <t>Identifying changes, schema changes, data latency</t>
+  </si>
+  <si>
+    <t>Caching temporary files</t>
+  </si>
+  <si>
+    <t>Migrating logs</t>
+  </si>
+  <si>
+    <t>How does Informatica manage data lineage tracking for compliance and audits?</t>
+  </si>
+  <si>
+    <t>Uses flat file schemas</t>
+  </si>
+  <si>
+    <t>Maintains cache logs</t>
+  </si>
+  <si>
+    <t>Uses metadata repositories and tracking</t>
+  </si>
+  <si>
+    <t>Checks for duplicates</t>
+  </si>
+  <si>
+    <t>What are the limitations of using Informatica for big data processing?</t>
+  </si>
+  <si>
+    <t>Slow UI only</t>
+  </si>
+  <si>
+    <t>High resource use, complex integration, cluster dependency</t>
+  </si>
+  <si>
+    <t>No scheduling support</t>
+  </si>
+  <si>
+    <t>Limited cache only</t>
+  </si>
+  <si>
+    <t>How does Informatica process hierarchical data structures?</t>
+  </si>
+  <si>
+    <t>Through staging tables</t>
+  </si>
+  <si>
+    <t>Converts to flat files</t>
+  </si>
+  <si>
+    <t>Uses XML/JSON parsers with hierarchical transformations</t>
+  </si>
+  <si>
+    <t>Ignores nested structures</t>
+  </si>
+  <si>
+    <t>What is the significance of hybrid data integration in Informatica?</t>
+  </si>
+  <si>
+    <t>Used only with SQL Server</t>
+  </si>
+  <si>
+    <t>Deletes unused records</t>
+  </si>
+  <si>
+    <t>Bridges on-prem and cloud-based processing</t>
+  </si>
+  <si>
+    <t>Encrypts all tables</t>
+  </si>
+  <si>
+    <t>What are some challenges in implementing Informatica’s advanced transformation techniques?</t>
+  </si>
+  <si>
+    <t>Limited to one output</t>
+  </si>
+  <si>
+    <t>Uses same cache always</t>
+  </si>
+  <si>
+    <t>Complex logic, high resource use, and error handling</t>
+  </si>
+  <si>
+    <t>Only supports SCD Type 1</t>
+  </si>
+  <si>
+    <t>How does Informatica handle session recovery after unexpected failures?</t>
+  </si>
+  <si>
+    <t>Deletes sessions</t>
+  </si>
+  <si>
+    <t>Skips error steps</t>
+  </si>
+  <si>
+    <t>Uses checkpoints and restartable sessions</t>
+  </si>
+  <si>
+    <t>Ignores failed tasks</t>
+  </si>
+  <si>
+    <t>What is Informatica’s approach to securing sensitive data?</t>
+  </si>
+  <si>
+    <t>Disables logs</t>
+  </si>
+  <si>
+    <t>Encrypts session cache only</t>
+  </si>
+  <si>
+    <t>Data masking, encryption, role-based access</t>
+  </si>
+  <si>
+    <t>Runs on staging only</t>
+  </si>
+  <si>
+    <t>How does Informatica handle high-performance bulk data loading?</t>
+  </si>
+  <si>
+    <t>Caches rejected rows</t>
+  </si>
+  <si>
+    <t>Skips lookup steps</t>
+  </si>
+  <si>
+    <t>Uses bulk loading and optimized DB operations</t>
+  </si>
+  <si>
+    <t>Avoids target validation</t>
+  </si>
+  <si>
+    <t>What does Informatica’s Intelligent Data Lake offer?</t>
+  </si>
+  <si>
+    <t>Sends audit emails</t>
+  </si>
+  <si>
+    <t>Data modeling</t>
+  </si>
+  <si>
+    <t>Self-service data discovery and exploration</t>
+  </si>
+  <si>
+    <t>Adds logs to database</t>
+  </si>
+  <si>
+    <t>How does Informatica enable cross-platform data movement?</t>
+  </si>
+  <si>
+    <t>Uses only one DB</t>
+  </si>
+  <si>
+    <t>Through local scripts</t>
+  </si>
+  <si>
+    <t>Supports connectors for databases, cloud, and apps</t>
+  </si>
+  <si>
+    <t>Avoids real-time updates</t>
+  </si>
+  <si>
+    <t>What are the benefits of using Informatica’s API-based integration?</t>
+  </si>
+  <si>
+    <t>Deletes source rows</t>
+  </si>
+  <si>
+    <t>Converts formats only</t>
+  </si>
+  <si>
+    <t>Enables interoperability and real-time dynamic transformation</t>
+  </si>
+  <si>
+    <t>Works offline</t>
+  </si>
+  <si>
+    <t>How does Informatica optimize data replication for distributed systems?</t>
+  </si>
+  <si>
+    <t>Uses flat file backup</t>
+  </si>
+  <si>
+    <t>Replicates entire DB every time</t>
+  </si>
+  <si>
+    <t>Uses incremental replication and compression</t>
+  </si>
+  <si>
+    <t>Only copies source schema</t>
+  </si>
+  <si>
+    <t>What role does Informatica play in master data management?</t>
+  </si>
+  <si>
+    <t>Cleanses, standardizes, and maintains single version of truth</t>
+  </si>
+  <si>
+    <t>Schedules batch jobs</t>
+  </si>
+  <si>
+    <t>Encrypts metadata</t>
+  </si>
+  <si>
+    <t>What are the challenges of implementing Informatica in multi-cloud environments?</t>
+  </si>
+  <si>
+    <t>Flat file limitations</t>
+  </si>
+  <si>
+    <t>Lack of UI access</t>
+  </si>
+  <si>
+    <t>Data movement complexity, compliance, integration issues</t>
+  </si>
+  <si>
+    <t>Too many logs</t>
+  </si>
+  <si>
+    <t>How does Informatica handle data enrichment processes?</t>
+  </si>
+  <si>
+    <t>Only caches source data</t>
+  </si>
+  <si>
+    <t>Skips transformations</t>
+  </si>
+  <si>
+    <t>Uses lookup transformations and reference data</t>
+  </si>
+  <si>
+    <t>Sends audit alerts</t>
+  </si>
+  <si>
+    <t>What are best practices for implementing Slowly Changing Dimensions in Informatica?</t>
+  </si>
+  <si>
+    <t>Enable tracing only</t>
+  </si>
+  <si>
+    <t>Avoid joins</t>
+  </si>
+  <si>
+    <t>Use indexing, reduce redundancy, optimize history tracking</t>
+  </si>
+  <si>
+    <t>Store in flat files</t>
+  </si>
+  <si>
+    <t>How does Informatica manage large dataset transformations without performance degradation?</t>
+  </si>
+  <si>
+    <t>Loads all into memory</t>
+  </si>
+  <si>
+    <t>Uses cloud only</t>
+  </si>
+  <si>
+    <t>Uses indexing, partitioning, and caching</t>
+  </si>
+  <si>
+    <t>Avoids complex logic</t>
+  </si>
+  <si>
+    <t>Differences between Informatica’s on-premise and cloud-based solutions?</t>
+  </si>
+  <si>
+    <t>Same cost and scalability</t>
+  </si>
+  <si>
+    <t>On-premise supports IoT</t>
+  </si>
+  <si>
+    <t>Cloud offers scalability, accessibility, reduced infra cost</t>
+  </si>
+  <si>
+    <t>No audit support in cloud</t>
+  </si>
+  <si>
+    <t>Challenges in migrating legacy ETL workflows to Informatica?</t>
+  </si>
+  <si>
+    <t>Flat file compression</t>
+  </si>
+  <si>
+    <t>Data mapping complexity, compatibility, optimization</t>
+  </si>
+  <si>
+    <t>No logging</t>
+  </si>
+  <si>
+    <t>Requires Hadoop only</t>
+  </si>
+  <si>
+    <t>How does Informatica support event-driven processing for real-time analytics?</t>
+  </si>
+  <si>
+    <t>Schedules only at night</t>
+  </si>
+  <si>
+    <t>Uses REST only</t>
+  </si>
+  <si>
+    <t>Uses event queues and streaming integration</t>
+  </si>
+  <si>
+    <t>Needs command tasks</t>
+  </si>
+  <si>
+    <t>What does Informatica’s Data Quality ensure in BI applications?</t>
+  </si>
+  <si>
+    <t>Faster loading</t>
+  </si>
+  <si>
+    <t>Data compression</t>
+  </si>
+  <si>
+    <t>Removes duplicate, inconsistent, incomplete records</t>
+  </si>
+  <si>
+    <t>Adds audit logs</t>
+  </si>
+  <si>
+    <t>Significance of Informatica’s big data integration capabilities?</t>
+  </si>
+  <si>
+    <t>Only works on Hadoop</t>
+  </si>
+  <si>
+    <t>Uses custom scripting</t>
+  </si>
+  <si>
+    <t>Supports distributed computing and parallel processing</t>
+  </si>
+  <si>
+    <t>How does Informatica ensure GDPR and data privacy compliance?</t>
+  </si>
+  <si>
+    <t>Uses data lakes</t>
+  </si>
+  <si>
+    <t>Locks workflows</t>
+  </si>
+  <si>
+    <t>Data governance, anonymization, and auditing</t>
+  </si>
+  <si>
+    <t>Uses dynamic mapping</t>
+  </si>
+  <si>
+    <t>Risks associated with poor cache configuration in Informatica?</t>
+  </si>
+  <si>
+    <t>Better logs</t>
+  </si>
+  <si>
+    <t>Improves tracing</t>
+  </si>
+  <si>
+    <t>Bottlenecks, memory exhaustion, session failure</t>
+  </si>
+  <si>
+    <t>Reduces I/O</t>
+  </si>
+  <si>
+    <t>How does Informatica optimize metadata management at enterprise scale?</t>
+  </si>
+  <si>
+    <t>Stores in text files</t>
+  </si>
+  <si>
+    <t>Uses XML format only</t>
+  </si>
+  <si>
+    <t>Centralized metadata and lineage tracking</t>
+  </si>
+  <si>
+    <t>Avoids audit trails</t>
+  </si>
+  <si>
+    <t>How does Informatica facilitate real-time business intelligence?</t>
+  </si>
+  <si>
+    <t>Uses batch scripts</t>
+  </si>
+  <si>
+    <t>Runs at day end</t>
+  </si>
+  <si>
+    <t>Uses streaming and low-latency processing</t>
+  </si>
+  <si>
+    <t>Uses only PowerCenter</t>
+  </si>
+  <si>
+    <t>Best practices for ETL error handling in Informatica?</t>
+  </si>
+  <si>
+    <t>Ignore logs</t>
+  </si>
+  <si>
+    <t>Manual retries only</t>
+  </si>
+  <si>
+    <t>Logging, retries, and validation rules</t>
+  </si>
+  <si>
+    <t>Skip sessions</t>
+  </si>
+  <si>
+    <t>Informatica’s approach to managing unstructured data?</t>
+  </si>
+  <si>
+    <t>Ignores metadata</t>
+  </si>
+  <si>
+    <t>Uses mapping only</t>
+  </si>
+  <si>
+    <t>Text parsing and document processing</t>
+  </si>
+  <si>
+    <t>Deletes non-relational data</t>
+  </si>
+  <si>
+    <t>How does Informatica integrate with cloud-native AI/ML apps?</t>
+  </si>
+  <si>
+    <t>Sends CSV</t>
+  </si>
+  <si>
+    <t>Manual pipelines</t>
+  </si>
+  <si>
+    <t>Provides connectors and automated data pipelines</t>
+  </si>
+  <si>
+    <t>Only works with SQL Server</t>
+  </si>
+  <si>
+    <t>Challenges when integrating Informatica with IoT/sensor data?</t>
+  </si>
+  <si>
+    <t>Disk space only</t>
+  </si>
+  <si>
+    <t>Low data volume</t>
+  </si>
+  <si>
+    <t>High-velocity data and real-time sync</t>
+  </si>
+  <si>
+    <t>Read-only formats</t>
+  </si>
+  <si>
+    <t>How does Informatica ensure disaster recovery and data redundancy?</t>
+  </si>
+  <si>
+    <t>Workflow versioning</t>
+  </si>
+  <si>
+    <t>Audit emails</t>
+  </si>
+  <si>
+    <t>Backup strategies and failover clustering</t>
+  </si>
+  <si>
+    <t>Skipping logs</t>
+  </si>
+  <si>
+    <t>What are the advantages of using Informatica for multi-enterprise data collaboration?</t>
+  </si>
+  <si>
+    <t>Uses static mappings</t>
+  </si>
+  <si>
+    <t>Ensures data consistency, integrity, and distributed processing</t>
+  </si>
+  <si>
+    <t>Requires manual sync</t>
+  </si>
+  <si>
+    <t>Avoids metadata usage</t>
+  </si>
+  <si>
+    <t>How does Informatica use distributed computing to scale ETL processes?</t>
+  </si>
+  <si>
+    <t>Uses FTP uploads</t>
+  </si>
+  <si>
+    <t>Replicates servers</t>
+  </si>
+  <si>
+    <t>Leverages Hadoop and Spark integration</t>
+  </si>
+  <si>
+    <t>Disables transformations</t>
+  </si>
+  <si>
+    <t>Challenges in maintaining real-time ETL pipelines in Informatica?</t>
+  </si>
+  <si>
+    <t>Static mapping issues</t>
+  </si>
+  <si>
+    <t>Managing ingestion, sync delays, and resource limits</t>
+  </si>
+  <si>
+    <t>Lacks caching</t>
+  </si>
+  <si>
+    <t>Requires XML format</t>
+  </si>
+  <si>
+    <t>How does Informatica improve ingestion for high-volume datasets?</t>
+  </si>
+  <si>
+    <t>Serial processing</t>
+  </si>
+  <si>
+    <t>Uses lookup joins</t>
+  </si>
+  <si>
+    <t>Parallel processing and optimized partitioning</t>
+  </si>
+  <si>
+    <t>Adds error tasks</t>
+  </si>
+  <si>
+    <t>Key security features of Informatica’s data integration tools?</t>
+  </si>
+  <si>
+    <t>Firewall rules only</t>
+  </si>
+  <si>
+    <t>Metadata isolation</t>
+  </si>
+  <si>
+    <t>Encryption, role-based access, security auditing</t>
+  </si>
+  <si>
+    <t>IP filtering only</t>
+  </si>
+  <si>
+    <t>How does Informatica handle schema evolution?</t>
+  </si>
+  <si>
+    <t>Freezes structure</t>
+  </si>
+  <si>
+    <t>Requires manual update</t>
+  </si>
+  <si>
+    <t>Dynamic schema mapping and metadata updates</t>
+  </si>
+  <si>
+    <t>Drops changes</t>
+  </si>
+  <si>
+    <t>Impact of network latency on cloud-based Informatica data movement?</t>
+  </si>
+  <si>
+    <t>Speeds up execution</t>
+  </si>
+  <si>
+    <t>No effect</t>
+  </si>
+  <si>
+    <t>Slows down performance and adds delays</t>
+  </si>
+  <si>
+    <t>Blocks transformations</t>
+  </si>
+  <si>
+    <t>Considerations for AI-driven analytics with Informatica?</t>
+  </si>
+  <si>
+    <t>Data compression only</t>
+  </si>
+  <si>
+    <t>Requires REST API only</t>
+  </si>
+  <si>
+    <t>Scalable processing and ML model integration</t>
+  </si>
+  <si>
+    <t>Requires only cloud storage</t>
+  </si>
+  <si>
+    <t>How does Informatica ensure high availability in distributed environments?</t>
+  </si>
+  <si>
+    <t>Manual reruns</t>
+  </si>
+  <si>
+    <t>Scheduler locks</t>
+  </si>
+  <si>
+    <t>Failover configs and network optimization</t>
+  </si>
+  <si>
+    <t>Cluster-only mode</t>
+  </si>
+  <si>
+    <t>Common bottlenecks in Informatica ETL workflows?</t>
+  </si>
+  <si>
+    <t>Schema evolution</t>
+  </si>
+  <si>
+    <t>Poor indexing, cache mismanagement, too many transformations</t>
+  </si>
+  <si>
+    <t>Excess audit checks</t>
+  </si>
+  <si>
+    <t>How does Informatica support financial data regulation compliance?</t>
+  </si>
+  <si>
+    <t>Filters only numeric fields</t>
+  </si>
+  <si>
+    <t>Sends email alerts</t>
+  </si>
+  <si>
+    <t>Audit trails, integrity checks, compliance rules</t>
+  </si>
+  <si>
+    <t>Uses only SCD</t>
+  </si>
+  <si>
+    <t>Optimization techniques for complex mappings?</t>
+  </si>
+  <si>
+    <t>Drop rows</t>
+  </si>
+  <si>
+    <t>Increase file size</t>
+  </si>
+  <si>
+    <t>Partitioning, parallelism, fewer lookups</t>
+  </si>
+  <si>
+    <t>Disable audit</t>
+  </si>
+  <si>
+    <t>How does Informatica handle semi-structured data formats?</t>
+  </si>
+  <si>
+    <t>Converts to flat</t>
+  </si>
+  <si>
+    <t>Uses SQL only</t>
+  </si>
+  <si>
+    <t>Uses specialized parsers and functions</t>
+  </si>
+  <si>
+    <t>Requires JSON only</t>
+  </si>
+  <si>
+    <t>Considerations for large-scale Informatica deployment?</t>
+  </si>
+  <si>
+    <t>Use XML only</t>
+  </si>
+  <si>
+    <t>Avoid metadata</t>
+  </si>
+  <si>
+    <t>Hardware, integration complexity, security</t>
+  </si>
+  <si>
+    <t>Significance of metadata-driven automation in Informatica?</t>
+  </si>
+  <si>
+    <t>Avoids manual mapping</t>
+  </si>
+  <si>
+    <t>Slows workflow</t>
+  </si>
+  <si>
+    <t>Enables dynamic data mapping and execution</t>
+  </si>
+  <si>
+    <t>Deletes staging logs</t>
+  </si>
+  <si>
+    <t>How does Informatica support data democratization across business units?</t>
+  </si>
+  <si>
+    <t>Role-based access and self-service analytics</t>
+  </si>
+  <si>
+    <t>Only admin view</t>
+  </si>
+  <si>
+    <t>One data owner only</t>
+  </si>
+  <si>
+    <t>Requires scripting</t>
+  </si>
+  <si>
+    <t>Advantages of integrating Informatica with blockchain?</t>
+  </si>
+  <si>
+    <t>Increases latency</t>
+  </si>
+  <si>
+    <t>Deletes duplicates</t>
+  </si>
+  <si>
+    <t>Enhances integrity, traceability, security</t>
+  </si>
+  <si>
+    <t>Reduces schema size</t>
+  </si>
+  <si>
+    <t>How does Informatica optimize real-time data pipelines?</t>
+  </si>
+  <si>
+    <t>Uses batch windows</t>
+  </si>
+  <si>
+    <t>Waits for full load</t>
+  </si>
+  <si>
+    <t>In-memory processing and event-driven design</t>
+  </si>
+  <si>
+    <t>Writes to Excel</t>
+  </si>
+  <si>
+    <t>Key features of Informatica’s API-based integration?</t>
+  </si>
+  <si>
+    <t>Supports FTP</t>
+  </si>
+  <si>
+    <t>Converts flat files</t>
+  </si>
+  <si>
+    <t>Enables interoperability and real-time data exchange</t>
+  </si>
+  <si>
+    <t>Ignores cache</t>
+  </si>
+  <si>
+    <t>How does Informatica enable AI-driven data cleansing?</t>
+  </si>
+  <si>
+    <t>Manual audit rules</t>
+  </si>
+  <si>
+    <t>SQL joins only</t>
+  </si>
+  <si>
+    <t>ML models for anomaly detection</t>
+  </si>
+  <si>
+    <t>Uses only filters</t>
+  </si>
+  <si>
+    <t>Enabling inline logging</t>
+  </si>
+  <si>
+    <t>What are the best strategies for managing Informatica metadata efficiently?</t>
+  </si>
+  <si>
+    <t>Automated lineage tracking and metadata version control</t>
+  </si>
+  <si>
+    <t>Manual tracking of changes</t>
+  </si>
+  <si>
+    <t>Data redundancy checks</t>
+  </si>
+  <si>
+    <t>Using flat file storage</t>
+  </si>
+  <si>
+    <t>How does Informatica support federated data architectures?</t>
+  </si>
+  <si>
+    <t>Provides data virtualization and distributed processing</t>
+  </si>
+  <si>
+    <t>Uses single data storage solutions</t>
+  </si>
+  <si>
+    <t>Requires cloud-based solutions</t>
+  </si>
+  <si>
+    <t>Combines on-premise and cloud storage</t>
+  </si>
+  <si>
+    <t>What are the main factors affecting Informatica workflow performance?</t>
+  </si>
+  <si>
+    <t>Resource allocation, caching strategies, and indexing</t>
+  </si>
+  <si>
+    <t>Number of transformations only</t>
+  </si>
+  <si>
+    <t>Data load volume</t>
+  </si>
+  <si>
+    <t>File formats used</t>
+  </si>
+  <si>
+    <t>How does Informatica ensure consistent data synchronization across hybrid environments?</t>
+  </si>
+  <si>
+    <t>Implements event-driven integration and CDC</t>
+  </si>
+  <si>
+    <t>Requires constant manual intervention</t>
+  </si>
+  <si>
+    <t>Uses only batch processing</t>
+  </si>
+  <si>
+    <t>Relies on data replication only</t>
+  </si>
+  <si>
+    <t>What are the main considerations for Informatica cloud migration?</t>
+  </si>
+  <si>
+    <t>Data security, latency, and compliance requirements</t>
+  </si>
+  <si>
+    <t>Data format only</t>
+  </si>
+  <si>
+    <t>Data migration speed</t>
+  </si>
+  <si>
+    <t>Only storage size</t>
+  </si>
+  <si>
+    <t>How does Informatica optimize data retrieval from distributed sources?</t>
+  </si>
+  <si>
+    <t>Uses adaptive query optimization techniques</t>
+  </si>
+  <si>
+    <t>Loads all data into memory</t>
+  </si>
+  <si>
+    <t>Only uses local sources</t>
+  </si>
+  <si>
+    <t>Queries data sequentially</t>
+  </si>
+  <si>
+    <t>What are the key elements of Informatica’s data governance framework?</t>
+  </si>
+  <si>
+    <t>Policy enforcement, security controls, and compliance auditing</t>
+  </si>
+  <si>
+    <t>Single data ownership only</t>
+  </si>
+  <si>
+    <t>Data cleaning tools</t>
+  </si>
+  <si>
+    <t>Query optimization only</t>
+  </si>
+  <si>
+    <t>How does Informatica integrate with predictive analytics tools?</t>
+  </si>
+  <si>
+    <t>Provides seamless connectivity with AI-driven platforms</t>
+  </si>
+  <si>
+    <t>Only integrates with SQL databases</t>
+  </si>
+  <si>
+    <t>Uses data-only integration</t>
+  </si>
+  <si>
+    <t>Requires external plugins for AI integration</t>
+  </si>
+  <si>
+    <t>What factors affect Informatica’s parallel execution performance?</t>
+  </si>
+  <si>
+    <t>Server capacity, workload distribution, and data volume</t>
+  </si>
+  <si>
+    <t>Number of tasks only</t>
+  </si>
+  <si>
+    <t>Transformation logic</t>
+  </si>
+  <si>
+    <t>Single-threaded processes</t>
+  </si>
+  <si>
+    <t>How does Informatica automate data quality checks in ETL workflows?</t>
+  </si>
+  <si>
+    <t>Uses rule-based validation and cleansing functions</t>
+  </si>
+  <si>
+    <t>Manually checks every data entry</t>
+  </si>
+  <si>
+    <t>Skips duplicate rows</t>
+  </si>
+  <si>
+    <t>Adds error logging only</t>
+  </si>
+  <si>
+    <t>How does Informatica optimize data movement between heterogeneous systems?</t>
+  </si>
+  <si>
+    <t>Uses adaptive connectors and optimized transformations</t>
+  </si>
+  <si>
+    <t>Converts all data to a common format</t>
+  </si>
+  <si>
+    <t>Uses only cloud connectors</t>
+  </si>
+  <si>
+    <t>Relies on batch processing</t>
+  </si>
+  <si>
+    <t>What are the security risks associated with Informatica cloud integration?</t>
+  </si>
+  <si>
+    <t>Data exposure, unauthorized access, and compliance violations</t>
+  </si>
+  <si>
+    <t>Lack of backup</t>
+  </si>
+  <si>
+    <t>Over-reliance on encryption</t>
+  </si>
+  <si>
+    <t>Single-point failure</t>
+  </si>
+  <si>
+    <t>How does Informatica handle schema drift in evolving data environments?</t>
+  </si>
+  <si>
+    <t>Uses dynamic schema mapping and metadata-driven updates</t>
+  </si>
+  <si>
+    <t>Freezes schema changes</t>
+  </si>
+  <si>
+    <t>Requires manual updates</t>
+  </si>
+  <si>
+    <t>Ignores schema changes</t>
+  </si>
+  <si>
+    <t>What are the trade-offs between batch and real-time data processing in Informatica?</t>
+  </si>
+  <si>
+    <t>Batch offers efficiency for large datasets, real-time ensures low latency</t>
+  </si>
+  <si>
+    <t>Batch is slower and less accurate</t>
+  </si>
+  <si>
+    <t>Real-time is inefficient for small datasets</t>
+  </si>
+  <si>
+    <t>Batch has no use in modern environments</t>
+  </si>
+  <si>
+    <t>How does Informatica mitigate performance bottlenecks in large-scale ETL processes?</t>
+  </si>
+  <si>
+    <t>Implements partitioning, caching strategies, and distributed processing</t>
+  </si>
+  <si>
+    <t>Uses fewer transformations</t>
+  </si>
+  <si>
+    <t>Disables indexing</t>
+  </si>
+  <si>
+    <t>Skips data validation</t>
+  </si>
+  <si>
+    <t>What is the role of adaptive data preparation in Informatica workflows?</t>
+  </si>
+  <si>
+    <t>Cleans, enriches, and transforms raw data dynamically</t>
+  </si>
+  <si>
+    <t>Compresses data only</t>
+  </si>
+  <si>
+    <t>Validates data formats</t>
+  </si>
+  <si>
+    <t>Runs only basic transformations</t>
+  </si>
+  <si>
+    <t>How does Informatica integrate with blockchain for secure data transactions?</t>
+  </si>
+  <si>
+    <t>Leverages immutable records and decentralized validation</t>
+  </si>
+  <si>
+    <t>Only stores data in blockchain</t>
+  </si>
+  <si>
+    <t>Uses cloud for blockchain data</t>
+  </si>
+  <si>
+    <t>Requires manual verification</t>
+  </si>
+  <si>
+    <t>What are the best practices for implementing metadata management in Informatica?</t>
+  </si>
+  <si>
+    <t>Centralized repositories, automated lineage tracking, and version control</t>
+  </si>
+  <si>
+    <t>Storing metadata in flat files</t>
+  </si>
+  <si>
+    <t>Using multiple disconnected metadata sources</t>
+  </si>
+  <si>
+    <t>Ignoring metadata tracking</t>
+  </si>
+  <si>
+    <t>How does Informatica optimize AI-driven data analytics pipelines?</t>
+  </si>
+  <si>
+    <t>Provides intelligent automation and AI-assisted transformation</t>
+  </si>
+  <si>
+    <t>Relies on human intervention for optimization</t>
+  </si>
+  <si>
+    <t>Uses fixed rules for data transformations</t>
+  </si>
+  <si>
+    <t>Requires no optimization</t>
+  </si>
+  <si>
+    <t>What is the future impact of Informatica on cloud-native data processing?</t>
+  </si>
+  <si>
+    <t>Enhances scalability, performance, and intelligent automation</t>
+  </si>
+  <si>
+    <t>Reduces cloud costs only</t>
+  </si>
+  <si>
+    <t>Limits transformation capacity</t>
+  </si>
+  <si>
+    <t>Requires large on-premise infrastructure</t>
   </si>
 </sst>
 </file>
@@ -1900,10 +4807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A06F9E0-01A3-4A62-B83C-804BEE67C24F}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="C305" sqref="C305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4241,6 +7148,4606 @@
         <v>489</v>
       </c>
     </row>
+    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>201</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>202</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>203</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>204</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>205</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>206</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>207</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>208</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>209</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>210</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>211</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>212</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>214</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>232</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>234</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>236</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>237</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>238</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>239</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>240</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>241</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>242</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>243</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>244</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>245</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>246</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>247</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>248</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>249</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>250</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>251</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <v>252</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <v>253</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>254</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <v>255</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <v>256</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>257</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>258</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>259</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>260</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>261</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <v>262</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
+        <v>263</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <v>264</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
+        <v>265</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
+        <v>266</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <v>267</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
+        <v>268</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
+        <v>269</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <v>270</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>271</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <v>272</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>273</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
+        <v>274</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <v>275</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
+        <v>276</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <v>277</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <v>278</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>279</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <v>280</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>281</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
+        <v>282</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <v>283</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
+        <v>284</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>285</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>286</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
+        <v>287</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <v>288</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>289</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
+        <v>290</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>291</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>292</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <v>293</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <v>294</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>295</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>296</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <v>297</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <v>298</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>299</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
+        <v>300</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>1458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
